--- a/その他資料/テスト仕様書.xlsx
+++ b/その他資料/テスト仕様書.xlsx
@@ -298,12 +298,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結果入力フィールドに、_x000D_「a,ttz,F,TRD,12,6,OOo,王様」を逐次入力し、
-「くじ入力」をタップする。</t>
+    <t>　　デバイス　iPhone Retina (4-inch)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　デバイス　iPhone Retina (4-inch)</t>
+    <t>結果入力フィールドに、_x000D_「a,ttz,F,TRD,12,6,OOo,王様」を逐次入力し、「くじ入力」をタップする。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -911,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -935,7 +934,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1">
@@ -974,7 +973,7 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>

--- a/その他資料/テスト仕様書.xlsx
+++ b/その他資料/テスト仕様書.xlsx
@@ -11,12 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$53</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t>テスト実施環境</t>
   </si>
@@ -303,6 +307,175 @@
   </si>
   <si>
     <t>結果入力フィールドに、_x000D_「a,ttz,F,TRD,12,6,OOo,王様」を逐次入力し、「くじ入力」をタップする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルメニュー画面で「使い方」をタップする。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方画面が表示された。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方画面の説明文をタップする。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カタガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方画面で、誤ってタップをする。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5ケタを超える面数のさいころをふる。</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルメニュー画面で、「ダイス＆コイン」をタップする。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイス＆コイン画面が表示された。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面数を6ケタ以上の任意の数に設定する。</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「作成」をタップする。</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ダイスを振る」をタップする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボードが出現した。
+　　改善例：キーボードが出現しないようにする。
+　　　　　　　キーボードを閉じることができるようにする。</t>
+    <rPh sb="6" eb="8">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面数指定が5ケタを超えると、すべてのケタが表示されない。
+　　改善例：表示領域を広くする。</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果が5ケタを超えると、上位3ケタまでしか表示されない。
+　　改善例：表示領域を広くする。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -335,7 +508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -553,13 +726,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +814,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1526,10 +1761,92 @@
         <v>8</v>
       </c>
     </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16">
+        <v>15</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="40.5">
+      <c r="A49" s="15"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16">
+        <v>16</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="27">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="27">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
